--- a/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,7 +483,7 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for report</t>
+    <t>The Diagnostic Report identifier</t>
   </si>
   <si>
     <t>Identifiers assigned to this report by the performer or other systems.</t>
@@ -505,6 +505,210 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+medcom-uuidv4:The value shall correspond to the structure of an UUID version 4 {matches('urn:uuid:[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>DiagnosticReport.basedOn</t>
@@ -551,9 +755,6 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-corediagnosticreport-status</t>
   </si>
   <si>
@@ -576,10 +777,6 @@
 Sub-departmentServiceDiscipline</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Service category</t>
   </si>
   <si>
@@ -919,29 +1116,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1374,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1383,17 +1558,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.43359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="53.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.28125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1402,26 +1577,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.80859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.3125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.83203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="147.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="104.53515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2585,13 +2760,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
@@ -2697,14 +2872,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2716,20 +2891,16 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2777,28 +2948,28 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -2806,44 +2977,44 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -2867,95 +3038,99 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -2979,13 +3154,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3009,7 +3184,7 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3021,35 +3196,35 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
@@ -3058,16 +3233,20 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3091,11 +3270,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3113,10 +3294,10 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>89</v>
@@ -3128,38 +3309,38 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3168,17 +3349,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3191,7 +3374,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3227,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3242,38 +3425,38 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3282,20 +3465,18 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3307,7 +3488,7 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3343,7 +3524,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3355,31 +3536,31 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3398,20 +3579,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3459,7 +3636,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3474,38 +3651,38 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -3514,20 +3691,18 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3575,7 +3750,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3593,25 +3768,25 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3621,28 +3796,28 @@
         <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3691,7 +3866,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3706,59 +3881,57 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3783,13 +3956,11 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -3807,13 +3978,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -3822,28 +3993,28 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3859,23 +4030,21 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -3899,13 +4068,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -3923,7 +4092,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3941,32 +4110,32 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>90</v>
@@ -3975,23 +4144,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4015,13 +4180,11 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4039,13 +4202,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4054,58 +4217,58 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4153,13 +4316,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4168,38 +4331,38 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -4208,17 +4371,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4267,13 +4432,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4282,28 +4447,28 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4319,19 +4484,23 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4379,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4391,61 +4560,63 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4499,37 +4670,37 @@
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4539,28 +4710,28 @@
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4609,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4621,38 +4792,38 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4661,22 +4832,22 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4725,13 +4896,13 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -4740,24 +4911,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4765,31 +4936,35 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4837,13 +5012,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -4855,10 +5030,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -4866,21 +5041,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>90</v>
@@ -4892,17 +5067,19 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -4951,13 +5128,13 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -4969,10 +5146,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -4980,10 +5157,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5006,15 +5183,17 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5039,13 +5218,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5063,7 +5242,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5081,10 +5260,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5092,14 +5271,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5109,28 +5288,26 @@
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5179,7 +5356,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5197,17 +5374,929 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN33">
+  <autoFilter ref="A1:AN41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5217,7 +6306,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -600,7 +600,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -689,7 +689,7 @@
     <t>DiagnosticReport.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <t>Codes for diagnostic service sections.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections|4.0.1</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -871,7 +871,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -973,7 +973,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
     <t>Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
@@ -1568,7 +1568,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-diagnosticreport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -401,6 +401,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>DiagnosticReport.contained</t>
@@ -426,34 +529,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -483,7 +565,7 @@
 </t>
   </si>
   <si>
-    <t>The Diagnostic Report identifier</t>
+    <t>Business identifier for report</t>
   </si>
   <si>
     <t>Identifiers assigned to this report by the performer or other systems.</t>
@@ -507,276 +589,76 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>DiagnosticReport.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type</t>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a service requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | preliminary | final | corrected | cancelled | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-corediagnosticreport-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-medcom-uuidv4:The value shall correspond to the structure of an UUID version 4 {matches('urn:uuid:[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final | corrected | cancelled | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-corediagnosticreport-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
     <t>Service category</t>
   </si>
   <si>
@@ -973,7 +855,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam)
 </t>
   </si>
   <si>
@@ -1008,6 +890,10 @@
 Reported by</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-organization|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam)
+</t>
+  </si>
+  <si>
     <t>Primary result interpreter</t>
   </si>
   <si>
@@ -1177,7 +1063,7 @@
 </t>
   </si>
   <si>
-    <t>A comment relevant for all observations in the report.</t>
+    <t>Clinical conclusion (interpretation) of test results</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
@@ -1549,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1568,7 +1454,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="250.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1577,12 +1463,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.5390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.83203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -1848,13 +1734,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>79</v>
@@ -2302,13 +2188,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>79</v>
@@ -2412,14 +2298,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -2431,17 +2317,15 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>79</v>
@@ -2490,13 +2374,13 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>79</v>
@@ -2511,7 +2395,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2519,14 +2403,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2545,16 +2429,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2592,19 +2476,19 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2616,7 +2500,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2625,7 +2509,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -2633,46 +2517,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2696,13 +2576,13 @@
         <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>79</v>
@@ -2720,19 +2600,19 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -2741,7 +2621,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -2749,14 +2629,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2772,23 +2652,21 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2836,31 +2714,31 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2872,14 +2750,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2891,15 +2769,17 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -2948,13 +2828,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2969,7 +2849,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -2977,14 +2857,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3003,16 +2883,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3050,19 +2930,19 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3074,7 +2954,7 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3083,7 +2963,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3091,21 +2971,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3114,22 +2994,22 @@
         <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3154,13 +3034,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3178,28 +3058,28 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3207,21 +3087,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3233,19 +3113,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3270,13 +3150,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3294,13 +3174,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3309,35 +3189,35 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3346,22 +3226,22 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3374,7 +3254,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3410,13 +3290,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3425,13 +3305,13 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3439,10 +3319,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3459,24 +3339,24 @@
         <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3488,7 +3368,7 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3500,13 +3380,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3524,10 +3402,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3536,38 +3414,38 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3579,15 +3457,17 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3612,13 +3492,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3636,13 +3516,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3654,35 +3534,35 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -3691,17 +3571,15 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3726,13 +3604,11 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3750,10 +3626,10 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -3765,16 +3641,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -3790,19 +3666,19 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>225</v>
@@ -3813,11 +3689,9 @@
       <c r="M20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3872,7 +3746,7 @@
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3881,16 +3755,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -3902,36 +3776,38 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3956,11 +3832,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -3981,7 +3859,7 @@
         <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -3993,35 +3871,35 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4033,18 +3911,20 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4068,13 +3948,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4092,13 +3972,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4107,38 +3987,38 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
@@ -4147,16 +4027,20 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4180,11 +4064,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4202,10 +4088,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4217,38 +4103,38 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
@@ -4257,17 +4143,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4316,13 +4204,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4331,35 +4219,35 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4371,19 +4259,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4432,13 +4320,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4447,16 +4335,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4468,14 +4356,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4484,22 +4372,22 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4554,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -4563,59 +4451,59 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4664,13 +4552,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4682,25 +4570,25 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4710,29 +4598,27 @@
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4780,7 +4666,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4795,28 +4681,28 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4835,17 +4721,15 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>310</v>
       </c>
@@ -4896,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4911,24 +4795,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4939,7 +4823,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4951,20 +4835,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5012,28 +4892,28 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5041,14 +4921,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5058,7 +4938,7 @@
         <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5067,20 +4947,18 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5128,7 +5006,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5140,16 +5018,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5157,14 +5035,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5177,24 +5055,26 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5242,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5254,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5263,7 +5143,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5271,43 +5151,45 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5356,13 +5238,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5374,10 +5256,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5385,10 +5267,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5396,7 +5278,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5408,16 +5290,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5468,10 +5350,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -5480,7 +5362,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5489,7 +5371,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5497,21 +5379,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5523,18 +5405,18 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5582,28 +5464,28 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5611,14 +5493,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5631,26 +5513,22 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5674,13 +5552,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5698,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5710,16 +5588,16 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5727,10 +5605,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5741,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5753,19 +5631,19 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5814,13 +5692,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -5832,471 +5710,17 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN41">
+  <autoFilter ref="A1:AN37">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6306,7 +5730,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI40">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
